--- a/nriss-patch-1/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/nriss-patch-1/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:12:00+00:00</t>
+    <t>2025-04-10T15:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/nriss-patch-1/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T15:35:36+00:00</t>
+    <t>2026-01-15T08:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
